--- a/arkira搜索测试.xlsx
+++ b/arkira搜索测试.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>类别</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>是否支持</t>
+  </si>
+  <si>
+    <t>提取是否就绪</t>
+  </si>
+  <si>
+    <t>匹配是否就绪</t>
   </si>
   <si>
     <r>
@@ -80,6 +86,9 @@
     <t>支持</t>
   </si>
   <si>
+    <t>不需要</t>
+  </si>
+  <si>
     <t>北京邮电大学</t>
   </si>
   <si>
@@ -98,10 +107,16 @@
     <t>网易</t>
   </si>
   <si>
+    <t>需要做</t>
+  </si>
+  <si>
+    <t>未就绪</t>
+  </si>
+  <si>
+    <t>搜索专业</t>
+  </si>
+  <si>
     <t>不支持</t>
-  </si>
-  <si>
-    <t>搜索专业</t>
   </si>
   <si>
     <t>目前的简历状态（在职找工作、离职、待离职）</t>
@@ -311,7 +326,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +713,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,16 +737,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -734,89 +755,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -824,6 +845,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2038,134 +2060,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.65625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.8515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.3515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.8515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="8" width="16.171875" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.8515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.65625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.8515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.3515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.8515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11" style="6" customWidth="1"/>
+    <col min="6" max="8" width="16.171875" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.8515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" ht="13.55" customHeight="1" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" ht="13.55" customHeight="1" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" ht="13.55" customHeight="1" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" ht="13.55" customHeight="1" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" ht="13.55" customHeight="1" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" ht="13.55" customHeight="1" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" ht="13.55" customHeight="1" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" ht="13.55" customHeight="1" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" ht="13.55" customHeight="1" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2179,18 +2201,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="51.0390625" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:3">
+    <row r="1" ht="17" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2200,119 +2224,141 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="20.4" spans="1:4">
+    <row r="2" ht="20.4" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" ht="20.4" spans="1:6">
+    <row r="3" ht="20.4" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" ht="20.4" spans="1:2">
+    <row r="4" ht="20.4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" ht="20.4" spans="1:2">
+    <row r="5" ht="20.4" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" ht="20.4" spans="1:2">
+    <row r="6" ht="20.4" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" ht="20.4" spans="1:2">
+    <row r="7" ht="20.4" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" ht="20.4" spans="1:2">
+    <row r="8" ht="20.4" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" ht="20.4" spans="1:2">
+    <row r="9" ht="20.4" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="20.4" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="20.4" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="20.4" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="20.4" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
